--- a/survey-parent/survey-report-impl/src/main/resources/template.xlsx
+++ b/survey-parent/survey-report-impl/src/main/resources/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaodao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00FE078-E12F-4E23-9D94-54FBBEE106C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F477A5-D69F-46B7-85FC-5957DC795396}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{66375A15-073F-4B75-B3CA-72366F63B53F}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{66375A15-073F-4B75-B3CA-72366F63B53F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>西安市轨道交通工程施工质量验收技术资料统一用表</t>
   </si>
@@ -120,18 +120,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>(m )</t>
-  </si>
-  <si>
-    <t>(m)</t>
-  </si>
-  <si>
-    <t>(mm)</t>
-  </si>
-  <si>
-    <t>(mm/d)</t>
   </si>
   <si>
     <t>结论及建议　</t>
@@ -167,7 +155,7 @@
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,18 +237,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -280,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -362,17 +338,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -412,32 +377,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -451,34 +390,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -490,235 +591,13 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,375 +1047,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C6C6C6-F82C-4414-9E51-C11012EE465C}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="61"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="52"/>
+      <c r="E6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="F6" s="54"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="48" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="51" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="52"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="87"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="61"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64" t="s">
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="65"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="61"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="65"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="70"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="76"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="80"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
+  <mergeCells count="22">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A18:I18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
